--- a/report/template/PEROLEHAN/revisi-template_kk2.xlsx
+++ b/report/template/PEROLEHAN/revisi-template_kk2.xlsx
@@ -322,11 +322,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000000000000000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -526,7 +527,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -895,6 +896,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1078,9 +1083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>717840</xdr:colOff>
+      <xdr:colOff>717480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1094,7 +1099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="183600" y="24120"/>
-          <a:ext cx="534240" cy="723960"/>
+          <a:ext cx="533880" cy="723600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,60 +1121,60 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="3.91326530612245"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="4.72448979591837"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="7" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="9" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="10" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="11" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="12" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="13" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="14" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="15" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="16" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="17" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="18" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="9" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="20" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="21" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="23" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="24" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="25" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="42" min="39" style="26" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="27" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="26" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="20" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="21" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="21" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="9" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="9" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="9" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="52" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="7" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="6" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="9" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="10" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="11" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="12" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="13" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="14" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="15" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="16" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="17" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="18" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="19" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="9" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="20" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="21" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="23" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="24" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="25" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="42" min="39" style="26" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="27" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="26" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="20" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="21" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="21" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="9" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="9" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="9" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="52" style="1" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17908,7 +17913,7 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="117" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="88"/>
       <c r="B19" s="89" t="s">
         <v>50</v>
@@ -17934,130 +17939,130 @@
       <c r="I19" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="92" t="s">
+      <c r="J19" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="92" t="s">
+      <c r="K19" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="93" t="s">
+      <c r="L19" s="94" t="s">
         <v>60</v>
       </c>
       <c r="M19" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="94" t="s">
+      <c r="N19" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="94" t="s">
+      <c r="O19" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="95" t="s">
+      <c r="P19" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="94" t="s">
+      <c r="Q19" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="96" t="s">
+      <c r="R19" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="S19" s="97" t="s">
+      <c r="S19" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="T19" s="98" t="s">
+      <c r="T19" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="U19" s="99" t="s">
+      <c r="U19" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="V19" s="100" t="s">
+      <c r="V19" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="W19" s="101" t="s">
+      <c r="W19" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="X19" s="102" t="s">
+      <c r="X19" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="Y19" s="103" t="s">
+      <c r="Y19" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="Z19" s="104" t="s">
+      <c r="Z19" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="AA19" s="105" t="s">
+      <c r="AA19" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="AB19" s="106" t="s">
+      <c r="AB19" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="AC19" s="107" t="s">
+      <c r="AC19" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="AD19" s="107" t="s">
+      <c r="AD19" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="AE19" s="108" t="s">
+      <c r="AE19" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="AF19" s="109" t="s">
+      <c r="AF19" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="AG19" s="110" t="s">
+      <c r="AG19" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="AH19" s="110" t="s">
+      <c r="AH19" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="AI19" s="111" t="s">
+      <c r="AI19" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="AJ19" s="110" t="s">
+      <c r="AJ19" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="AK19" s="112" t="s">
+      <c r="AK19" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="AL19" s="113" t="s">
+      <c r="AL19" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="AM19" s="114" t="s">
+      <c r="AM19" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="AN19" s="114" t="s">
+      <c r="AN19" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="AO19" s="114" t="s">
+      <c r="AO19" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="AP19" s="114" t="s">
+      <c r="AP19" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="AQ19" s="115" t="s">
+      <c r="AQ19" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="AR19" s="114" t="s">
+      <c r="AR19" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="AS19" s="108" t="s">
+      <c r="AS19" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="AT19" s="109" t="s">
+      <c r="AT19" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="AU19" s="109" t="s">
+      <c r="AU19" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="AV19" s="96" t="s">
+      <c r="AV19" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="AW19" s="97" t="s">
+      <c r="AW19" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="AX19" s="97" t="s">
+      <c r="AX19" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="AY19" s="97" t="s">
+      <c r="AY19" s="98" t="s">
         <v>97</v>
       </c>
     </row>
